--- a/pred_ohlcv/54_21/2020-01-23 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 WAVES ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-14798.2107</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-16782.5878</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-17644.7985</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-18787.1834</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-16930.5176</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17062.10749999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-18280.2192</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-18851.8541</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-20038.4142</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-20086.466</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-20086.466</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20521.466</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20520.966</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-22496.375</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-23073.1596</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19206.3285</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-19206.3285</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-24759.7953</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-26942.9576</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-30045.054</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 WAVES ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-14979.6106</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-17644.7985</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-18787.1834</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17948.4026</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17719.9241</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-16930.5176</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17062.10749999999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-18280.2192</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-18851.8541</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18580.7728</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-20048.9386</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-20038.4142</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20521.466</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20520.966</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-22540.375</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-22551.375</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-22570.4653</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-23073.1596</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19206.3285</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-19206.3285</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-24759.7953</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-24641.96</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-26942.9576</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-30045.054</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
